--- a/biology/Biologie cellulaire et moléculaire/Cancéropôle_PACA/Cancéropôle_PACA.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cancéropôle_PACA/Cancéropôle_PACA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canc%C3%A9rop%C3%B4le_PACA</t>
+          <t>Cancéropôle_PACA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cancéropôle PACA, créé en 2003, fait partie des sept cancéropôles français. Leur création est le résultat du premier Plan Cancer mis en place par l’État dans une politique nationale de lutte contre le cancer.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canc%C3%A9rop%C3%B4le_PACA</t>
+          <t>Cancéropôle_PACA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Labellisé par l’Institut national du cancer et constitué de huit membres institutionnels, le Cancéropôle PACA fédère 230 équipes dans la région Provence-Alpes-Côte d'Azur représentants environ 650 chercheurs dans le domaine, avec un budget d'environ 4.5 M € pour une période de trois ans, provenant de partenaires et de fonds publics principalement (INCa, Conseil Régional PACA…)
 Les huit membres fondateurs du GIP Cancéropôle PACA sont :
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canc%C3%A9rop%C3%B4le_PACA</t>
+          <t>Cancéropôle_PACA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le rôle du Cancéropôle PACA c’est :      
 Animer une communauté de chercheurs et cliniciens autour de la lutte contre le cancer
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canc%C3%A9rop%C3%B4le_PACA</t>
+          <t>Cancéropôle_PACA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Évaluation et labellisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À chaque fin de plan cancer, les cancéropôles ont été évalués par l’agence d’évaluation de la recherche et de l’enseignement supérieur (AERES) puis un comité d’experts mis en place par l’INCa pour être reconduits à la suite d'une évaluation positive. 
 </t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Canc%C3%A9rop%C3%B4le_PACA</t>
+          <t>Cancéropôle_PACA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cancéropôle PACA est essentiellement financé par l’Institut national du cancer (INCa) et par la région Provence Alpes Côte d’azur. À cela se rajoutent également des partenariats institutionnels (notamment les comités départementaux de la ligue contre le cancer des Bouches du Rhône, du Var et des Alpes Maritimes) ou privés.
 </t>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Canc%C3%A9rop%C3%B4le_PACA</t>
+          <t>Cancéropôle_PACA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,8 +673,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Assemblée générale
-Composée des représentants de ses huit membres, à raison de trois représentants par institution, elle est présidée par Yvon Berland, Président d’Aix-Marseille Université depuis la création du GIP Cancéropôle PACA en 2011.
+          <t>Assemblée générale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Composée des représentants de ses huit membres, à raison de trois représentants par institution, elle est présidée par Yvon Berland, Président d’Aix-Marseille Université depuis la création du GIP Cancéropôle PACA en 2011.
 Sont également invités :
 Institut national du cancer 
 La région Provence-Alpes-Côte d’Azur
